--- a/server/副本城市节点报名表11.xlsx
+++ b/server/副本城市节点报名表11.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13160"/>
+    <workbookView windowWidth="28000" windowHeight="12860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1239,7 +1239,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
@@ -1509,13 +1509,13 @@
         <v>43</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>45</v>
